--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5781D5A-1148-41B2-AD1B-90361A2EF0B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666421-6BCD-4063-806A-AC1E3C6F60CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="390" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Catégorie</t>
   </si>
@@ -46,13 +46,67 @@
   </si>
   <si>
     <t>(SEO ou accessiblité ?)</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Pas de meta description</t>
+  </si>
+  <si>
+    <t>Content vide</t>
+  </si>
+  <si>
+    <t>Mettre une description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">police trop petite </t>
+  </si>
+  <si>
+    <t>- de 12px sur 60% du site</t>
+  </si>
+  <si>
+    <t>augmenter en rem ou en %</t>
+  </si>
+  <si>
+    <t>cibles tactiles trop petites</t>
+  </si>
+  <si>
+    <t>inférieur à 48px par 48 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">augmenter à 48 48px </t>
+  </si>
+  <si>
+    <t>accessibilité</t>
+  </si>
+  <si>
+    <t>couleurs d'arrière-plan et de premier plan n'ont pas un rapport de contraste suffisant</t>
+  </si>
+  <si>
+    <t>Le texte de 18 points ou 14 points en gras nécessite un rapport de contraste de 3: 1.</t>
+  </si>
+  <si>
+    <t>Tout autre texte a besoin d'un rapport de contraste de 4,5: 1.</t>
+  </si>
+  <si>
+    <t>pas un rapport de contraste suffisamment élevé</t>
+  </si>
+  <si>
+    <t>Les éléments d'en-tête ne sont pas dans un ordre séquentiel décroissant</t>
+  </si>
+  <si>
+    <t>Échec de l'audit des niveaux de titre du phare </t>
+  </si>
+  <si>
+    <t>utiliser les h1 h2 h3 etc,,,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +132,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -113,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -121,6 +181,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,11 +400,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
@@ -397,36 +464,102 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
       <c r="E5" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
       <c r="E6" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E9" s="4" t="b">
         <v>0</v>
       </c>
@@ -1448,6 +1581,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68666421-6BCD-4063-806A-AC1E3C6F60CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4130280-B29C-4E1A-8D3E-A7067CB80EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Catégorie</t>
   </si>
@@ -66,18 +66,6 @@
     <t>- de 12px sur 60% du site</t>
   </si>
   <si>
-    <t>augmenter en rem ou en %</t>
-  </si>
-  <si>
-    <t>cibles tactiles trop petites</t>
-  </si>
-  <si>
-    <t>inférieur à 48px par 48 px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">augmenter à 48 48px </t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
@@ -100,6 +88,9 @@
   </si>
   <si>
     <t>utiliser les h1 h2 h3 etc,,,</t>
+  </si>
+  <si>
+    <t>augmenter a 12px</t>
   </si>
 </sst>
 </file>
@@ -400,17 +391,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="26" width="10.5546875" customWidth="1"/>
   </cols>
@@ -459,9 +450,7 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -476,9 +465,7 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -491,108 +478,75 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="b">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4130280-B29C-4E1A-8D3E-A7067CB80EB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2EE8E9-956D-4E31-A86A-15BB8D3C4725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Catégorie</t>
   </si>
@@ -45,59 +45,170 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
-    <t>Pas de meta description</t>
-  </si>
-  <si>
-    <t>Content vide</t>
-  </si>
-  <si>
-    <t>Mettre une description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">police trop petite </t>
-  </si>
-  <si>
-    <t>- de 12px sur 60% du site</t>
-  </si>
-  <si>
     <t>accessibilité</t>
   </si>
   <si>
-    <t>couleurs d'arrière-plan et de premier plan n'ont pas un rapport de contraste suffisant</t>
-  </si>
-  <si>
-    <t>Le texte de 18 points ou 14 points en gras nécessite un rapport de contraste de 3: 1.</t>
-  </si>
-  <si>
-    <t>Tout autre texte a besoin d'un rapport de contraste de 4,5: 1.</t>
-  </si>
-  <si>
-    <t>pas un rapport de contraste suffisamment élevé</t>
-  </si>
-  <si>
     <t>Les éléments d'en-tête ne sont pas dans un ordre séquentiel décroissant</t>
   </si>
   <si>
-    <t>Échec de l'audit des niveaux de titre du phare </t>
-  </si>
-  <si>
-    <t>utiliser les h1 h2 h3 etc,,,</t>
-  </si>
-  <si>
-    <t>augmenter a 12px</t>
+    <t>pas de méta description</t>
+  </si>
+  <si>
+    <t>Manque une description  dans content</t>
+  </si>
+  <si>
+    <t>Ajoutez un &lt;meta name=description&gt;élément au &lt;head&gt;de chacune de vos pages</t>
+  </si>
+  <si>
+    <t>Descriptif mais concis</t>
+  </si>
+  <si>
+    <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Le document n'utilise pas de tailles de police lisibles</t>
+  </si>
+  <si>
+    <t>60% ou plus du texte a une taille de police inférieure à 12 px</t>
+  </si>
+  <si>
+    <t>Vérifiez les tailles de police dans votre CSS. Essayez d'avoir une taille de police d'au moins 12 px sur au moins 60% du texte de votre page</t>
+  </si>
+  <si>
+    <t>Augmenter la taille de police a 12px</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Les couleurs d'arrière-plan et de premier plan n'ont pas un rapport de contraste suffisant</t>
+  </si>
+  <si>
+    <t>Textes de la même couleur que l'arrière plan</t>
+  </si>
+  <si>
+    <t>Changer la couleur du texte</t>
+  </si>
+  <si>
+    <t>couleur plus foncé ou plus clair que l'arrière plan</t>
+  </si>
+  <si>
+    <t>https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Faites en sorte que tous les éléments d'en-tête suivent un ordre numérique logique qui reflète la structure de votre contenu</t>
+  </si>
+  <si>
+    <t>Mettre les titres dans le bon ordre</t>
+  </si>
+  <si>
+    <t>Assurez-vous que le texte de votre titre transmet clairement le contenu de la section associée</t>
+  </si>
+  <si>
+    <t>https://web.dev/heading-order/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;l'élément n'a pas de valeur valide pour son [lang]attribut</t>
+  </si>
+  <si>
+    <t> l' &lt;html&gt;élément n'a pas d' [lang]attribut</t>
+  </si>
+  <si>
+    <t>utilisez un code de langue valide dans l' langattribut de l' &lt;html&gt;élément</t>
+  </si>
+  <si>
+    <t>Mettre un e lang fr car c'est un site francais</t>
+  </si>
+  <si>
+    <t>https://web.dev/html-lang-valid/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Les liens n'ont pas de nom discernable</t>
+  </si>
+  <si>
+    <t>Il manque ole nom des résaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens doivent avoir un texte discernable </t>
+  </si>
+  <si>
+    <t>Mettre les noms des resaux sociaux</t>
+  </si>
+  <si>
+    <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Balise meta Keywords</t>
+  </si>
+  <si>
+    <t>La balise meta Keywords est une balise HTML aujourd'hui totalement obsolète </t>
+  </si>
+  <si>
+    <t>Mettre des balises accépté par Google</t>
+  </si>
+  <si>
+    <t>supprimer les meta keyword</t>
+  </si>
+  <si>
+    <t>https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>BMP est un ancien format d’image</t>
+  </si>
+  <si>
+    <t>Performence</t>
+  </si>
+  <si>
+    <t>Problème dans le format d'mage</t>
+  </si>
+  <si>
+    <t>Mettre les images sous JPEG ou PNG</t>
+  </si>
+  <si>
+    <t>Changer le format d'image et compresser les images</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Éliminez les URL bloquant</t>
+  </si>
+  <si>
+    <t>Les &lt;script&gt; n'ont pas "defer" attribut</t>
+  </si>
+  <si>
+    <t>Marquer l'URL avec async ou des defer attributs</t>
+  </si>
+  <si>
+    <t>Mettre des defer attributs</t>
+  </si>
+  <si>
+    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Problème de description dans les images</t>
+  </si>
+  <si>
+    <t>Changer le descriptif pour que les non voyant et les moteurs recherche puissent comprendre l'image</t>
+  </si>
+  <si>
+    <t>Décrire l'mage projeté dans le site</t>
+  </si>
+  <si>
+    <t>L'attribut alt contient une description textuelle de l'image ; il est recommandé pour des raisons d'accessibilité et sera utilisé par les lecteurs d'écran ou sera affiché si l'image ne peut pas être chargée.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,8 +241,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +259,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -164,16 +287,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,43 +528,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="74.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="26" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="172.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -445,126 +584,285 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4"/>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4"/>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="F14" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="F15" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4"/>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4"/>
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2EE8E9-956D-4E31-A86A-15BB8D3C4725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42E968-45F2-4C50-BDD7-DB67395A9DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>Catégorie</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Manque une description  dans content</t>
   </si>
   <si>
-    <t>Ajoutez un &lt;meta name=description&gt;élément au &lt;head&gt;de chacune de vos pages</t>
-  </si>
-  <si>
-    <t>Descriptif mais concis</t>
-  </si>
-  <si>
     <t>https://web.dev/meta-description/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>Vérifiez les tailles de police dans votre CSS. Essayez d'avoir une taille de police d'au moins 12 px sur au moins 60% du texte de votre page</t>
   </si>
   <si>
-    <t>Augmenter la taille de police a 12px</t>
-  </si>
-  <si>
     <t>https://web.dev/font-size/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -93,18 +84,12 @@
     <t>Changer la couleur du texte</t>
   </si>
   <si>
-    <t>couleur plus foncé ou plus clair que l'arrière plan</t>
-  </si>
-  <si>
     <t>https://web.dev/color-contrast/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
     <t>Faites en sorte que tous les éléments d'en-tête suivent un ordre numérique logique qui reflète la structure de votre contenu</t>
   </si>
   <si>
-    <t>Mettre les titres dans le bon ordre</t>
-  </si>
-  <si>
     <t>Assurez-vous que le texte de votre titre transmet clairement le contenu de la section associée</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>utilisez un code de langue valide dans l' langattribut de l' &lt;html&gt;élément</t>
   </si>
   <si>
-    <t>Mettre un e lang fr car c'est un site francais</t>
-  </si>
-  <si>
     <t>https://web.dev/html-lang-valid/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t xml:space="preserve">Les liens doivent avoir un texte discernable </t>
   </si>
   <si>
-    <t>Mettre les noms des resaux sociaux</t>
-  </si>
-  <si>
     <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -147,12 +126,6 @@
     <t>La balise meta Keywords est une balise HTML aujourd'hui totalement obsolète </t>
   </si>
   <si>
-    <t>Mettre des balises accépté par Google</t>
-  </si>
-  <si>
-    <t>supprimer les meta keyword</t>
-  </si>
-  <si>
     <t>https://www.definitions-seo.com/definition-de-balise-meta-keywords/</t>
   </si>
   <si>
@@ -165,9 +138,6 @@
     <t>Problème dans le format d'mage</t>
   </si>
   <si>
-    <t>Mettre les images sous JPEG ou PNG</t>
-  </si>
-  <si>
     <t>Changer le format d'image et compresser les images</t>
   </si>
   <si>
@@ -183,9 +153,6 @@
     <t>Marquer l'URL avec async ou des defer attributs</t>
   </si>
   <si>
-    <t>Mettre des defer attributs</t>
-  </si>
-  <si>
     <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
@@ -195,20 +162,191 @@
     <t>Changer le descriptif pour que les non voyant et les moteurs recherche puissent comprendre l'image</t>
   </si>
   <si>
-    <t>Décrire l'mage projeté dans le site</t>
-  </si>
-  <si>
     <t>L'attribut alt contient une description textuelle de l'image ; il est recommandé pour des raisons d'accessibilité et sera utilisé par les lecteurs d'écran ou sera affiché si l'image ne peut pas être chargée.</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img</t>
+  </si>
+  <si>
+    <t>Ajoutez un &lt;meta name=description&gt;élément au &lt;head&gt;de chacune de vos pages/</t>
+  </si>
+  <si>
+    <t>Mettre des balises accépté par Google/supprimer les meta Keyword</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Les cibles tactiles ne sont pas dimensionnées de manière appropriée</t>
+  </si>
+  <si>
+    <t>De nombreux moteurs de recherche classent les pages en fonction de leur compatibilité avec les mobiles. S'assurer que les cibles tactiles sont suffisamment grandes et suffisamment éloignées les unes des autres rend votre page plus conviviale et accessible pour les mobiles.</t>
+  </si>
+  <si>
+    <t>Utilisez padding pour agrandir les cibles tactiles sans modifier l'apparence d'un élément</t>
+  </si>
+  <si>
+    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Supprimer le CSS inutilisé</t>
+  </si>
+  <si>
+    <t>Supprimez le CSS inutilisé pour réduire les octets inutiles consommés par l'activité du réseau</t>
+  </si>
+  <si>
+    <t>Afficher le CSS utilisé et non utilisé avec l'onglet Couverture .</t>
+  </si>
+  <si>
+    <t>https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Servez des actifs statiques avec une politique de cache efficace</t>
+  </si>
+  <si>
+    <t>La mise en cache HTTP peut accélérer le temps de chargement de votre page lors de visites répétées.</t>
+  </si>
+  <si>
+    <t>La colonne Taille dans Chrome DevTools peut vous aider à vérifier qu'une ressource a été mise en cache</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-long-cache-ttl/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Optimiser le décalage de mise en page cumulé</t>
+  </si>
+  <si>
+    <t>éviter les changements soudains de mise en page pour améliorer l'expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Définir une hauteur et une largeur d'image</t>
+  </si>
+  <si>
+    <t>https://web.dev/optimize-cls/?utm_source=lighthouse&amp;utm_medium=devtools#images-without-dimensions</t>
+  </si>
+  <si>
+    <t>Bonne pratique</t>
+  </si>
+  <si>
+    <t>Modifier les versions de Bootstrap et Jquery</t>
+  </si>
+  <si>
+    <t>9 vulnérabilité de sécurité detécté</t>
+  </si>
+  <si>
+    <t>Version de bootstrap et jquery ancienne</t>
+  </si>
+  <si>
+    <t>https://web.dev/no-vulnerable-libraries/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Contraste de la couleur</t>
+  </si>
+  <si>
+    <t>Le contraste de la couleur entre l'arrière-plan et le contenu de premier-plan (qui est en général du texte) doit être assez prononcé pour assurer la lisibilité.</t>
+  </si>
+  <si>
+    <t>Faites en sorte que le contraste des couleurs soit aussi bon que possible dans vos contraintes de conception - optez idéalement pour la note AAA , mais répondez au moins à la note AA</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Keyboard</t>
+  </si>
+  <si>
+    <t>Débordement</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/CSS/Building_blocks/Overflowing_content</t>
+  </si>
+  <si>
+    <t>Certain élément déborde du site on peut les voir s'afficher sur firefox</t>
+  </si>
+  <si>
+    <t>Modifier les margin en mettant des valeurs positive</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>La pseudo-classe :focus permet de cibler un élément lorsque celui-ci reçoit le focus (soit il est sélectionné à l'aide du clavier, soit il est activé avec la souris comme par exemple le champ d'un formulaire).</t>
+  </si>
+  <si>
+    <t>Manque du focus dans certaines balises</t>
+  </si>
+  <si>
+    <t>Mauvais lien dans &lt;sript&gt; page 2</t>
+  </si>
+  <si>
+    <t>Il y a &lt;min&gt; rajouter dans chaque lien et cela ce correspond pas aux liens du site</t>
+  </si>
+  <si>
+    <t>Mettre les bon liens</t>
+  </si>
+  <si>
+    <t>Manque de couleur pour les balises accueil et contact</t>
+  </si>
+  <si>
+    <t>Ajout d'une couleur au survol pour les liens accueil et contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème pour savoir où la souri se place </t>
+  </si>
+  <si>
+    <t>suppression des img de citation et modification en texte</t>
+  </si>
+  <si>
+    <t>Citation en image</t>
+  </si>
+  <si>
+    <t>Les images ont un chargement plus long que les textes</t>
+  </si>
+  <si>
+    <t>Modification du footer en mettant des infos utile</t>
+  </si>
+  <si>
+    <t>Faux lien dans le footer</t>
+  </si>
+  <si>
+    <t>Probleme de chargement lorsqu'on met des faux liens / le chargement est plus long</t>
+  </si>
+  <si>
+    <t>suppresion du css dans l'html</t>
+  </si>
+  <si>
+    <t>CSS dans l'HTLM</t>
+  </si>
+  <si>
+    <t>Il est préférable de mettre tout le CSS dans une feuille de style,css afin d'avoir les mêmes modifications dans toute les page du site</t>
+  </si>
+  <si>
+    <t>Modification Du squelette htlm</t>
+  </si>
+  <si>
+    <t>Mauvaise définition du squelette HTML</t>
+  </si>
+  <si>
+    <t>Chaque document HTML partage la même structure et dans le site il n'y a pas de structure cohérent</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/conflicting/Learn/HTML/Introduction_to_HTML/Getting_started</t>
+  </si>
+  <si>
+    <t>Nom des éléments du site</t>
+  </si>
+  <si>
+    <t>page2 ne défini ce qu'il y a dans la page 2</t>
+  </si>
+  <si>
+    <t>modification de page 2 en contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,27 +366,17 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +395,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,34 +417,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,25 +714,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="77.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="172.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="120.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="72.88671875" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,315 +773,1891 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+    </row>
+    <row r="17" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="1:27" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>13</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
         <v>19</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="B40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="B42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+    </row>
+    <row r="43" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+    </row>
+    <row r="45" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>24</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+    </row>
+    <row r="47" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>25</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>26</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C50" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1831,7 +3594,208 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1021" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="175">
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42E968-45F2-4C50-BDD7-DB67395A9DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8167E56-6060-4075-A1AB-A7CB5FBCDF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
   <si>
     <t>Catégorie</t>
   </si>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>modification de page 2 en contact</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/script</t>
+  </si>
+  <si>
+    <t>https://www.definitions-marketing.com/definition/crawlabilite-site-web/</t>
+  </si>
+  <si>
+    <t>https://www.octopulse.io/seo-guide/performance</t>
+  </si>
+  <si>
+    <t>https://www.cssdebutant.com/debuter-en-css-integrer-du-css-page-HTML.html</t>
   </si>
 </sst>
 </file>
@@ -397,12 +409,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -458,11 +470,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +522,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,17 +542,30 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1024"/>
+  <dimension ref="A1:AA1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -774,25 +842,25 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="5"/>
@@ -817,13 +885,13 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -846,25 +914,25 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="5"/>
@@ -889,13 +957,13 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -918,25 +986,25 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5"/>
@@ -961,13 +1029,13 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -990,25 +1058,25 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5"/>
@@ -1033,13 +1101,13 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1062,25 +1130,25 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="5"/>
@@ -1105,13 +1173,13 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1134,25 +1202,25 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="5"/>
@@ -1177,13 +1245,13 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1206,25 +1274,25 @@
       <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="8">
         <v>7</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="5"/>
@@ -1249,13 +1317,13 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1278,25 +1346,25 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="5"/>
@@ -1321,13 +1389,13 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1350,25 +1418,25 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="5"/>
@@ -1393,13 +1461,13 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1422,25 +1490,25 @@
       <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>10</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="10" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="5"/>
@@ -1465,13 +1533,13 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1493,28 +1561,14 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="22" spans="1:27" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1522,28 +1576,42 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>11</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -1565,26 +1633,14 @@
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11" t="s">
-        <v>57</v>
-      </c>
+    <row r="24" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1606,14 +1662,26 @@
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -1635,26 +1703,14 @@
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <v>13</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11" t="s">
-        <v>61</v>
-      </c>
+    <row r="26" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1676,14 +1732,26 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>13</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -1705,26 +1773,14 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8" t="s">
-        <v>65</v>
-      </c>
+    <row r="28" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1746,14 +1802,28 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>14</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1775,26 +1845,14 @@
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <v>15</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>70</v>
-      </c>
+    <row r="30" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -1816,14 +1874,26 @@
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>15</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -1845,26 +1915,14 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="8" t="s">
-        <v>74</v>
-      </c>
+    <row r="32" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -1886,14 +1944,28 @@
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
     </row>
-    <row r="33" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="8"/>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>16</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -1915,26 +1987,14 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>17</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="8" t="s">
-        <v>75</v>
-      </c>
+    <row r="34" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -1956,14 +2016,28 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
     </row>
-    <row r="35" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="8"/>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1985,26 +2059,14 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>18</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="8" t="s">
-        <v>77</v>
-      </c>
+    <row r="36" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2026,14 +2088,28 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
     </row>
-    <row r="37" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="8"/>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>18</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2055,24 +2131,14 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>19</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="8"/>
+    <row r="38" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -2094,14 +2160,28 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
     </row>
-    <row r="39" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="8"/>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>19</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -2123,24 +2203,14 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>20</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="8"/>
+    <row r="40" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2162,14 +2232,28 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="8"/>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>20</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -2191,24 +2275,14 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>22</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="8"/>
+    <row r="42" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -2230,14 +2304,28 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="8"/>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -2259,24 +2347,14 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>23</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="8"/>
+    <row r="44" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -2298,14 +2376,28 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="8"/>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>23</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -2327,24 +2419,14 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>24</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="8"/>
+    <row r="46" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -2366,14 +2448,28 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="8"/>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>24</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -2395,26 +2491,14 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>25</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="8" t="s">
-        <v>101</v>
-      </c>
+    <row r="48" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -2436,14 +2520,28 @@
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="8"/>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>25</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -2465,24 +2563,14 @@
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>26</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+    <row r="50" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -2504,14 +2592,28 @@
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>26</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -2533,14 +2635,14 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+    <row r="52" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -2592,20 +2694,20 @@
       <c r="AA53" s="4"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -2649,7 +2751,35 @@
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+    </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3618,169 +3748,10 @@
     <row r="1022" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1023" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1024" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -3795,6 +3766,166 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mouatakide1\Desktop\p4\p4\La-chouette-agence-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoua\Dropbox\Mon PC (LAPTOP-CEI78QN6)\Desktop\projet4\La-chouette-agence-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8167E56-6060-4075-A1AB-A7CB5FBCDF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93721900-924A-496B-8BB5-580FF705EABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="0" windowWidth="19050" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,36 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -566,6 +536,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +785,10 @@
   <dimension ref="A1:AA1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -842,25 +842,25 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="5"/>
@@ -885,13 +885,13 @@
       <c r="AA2" s="4"/>
     </row>
     <row r="3" spans="1:27" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -914,25 +914,25 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="5"/>
@@ -957,13 +957,13 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -986,25 +986,25 @@
       <c r="AA5" s="4"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H6" s="5"/>
@@ -1029,13 +1029,13 @@
       <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1058,25 +1058,25 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5"/>
@@ -1101,13 +1101,13 @@
       <c r="AA8" s="4"/>
     </row>
     <row r="9" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1130,25 +1130,25 @@
       <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="5"/>
@@ -1173,13 +1173,13 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -1202,25 +1202,25 @@
       <c r="AA11" s="4"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="17">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="5"/>
@@ -1245,13 +1245,13 @@
       <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1274,25 +1274,25 @@
       <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="17">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="5"/>
@@ -1317,13 +1317,13 @@
       <c r="AA14" s="4"/>
     </row>
     <row r="15" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1346,25 +1346,25 @@
       <c r="AA15" s="4"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="5"/>
@@ -1389,13 +1389,13 @@
       <c r="AA16" s="4"/>
     </row>
     <row r="17" spans="1:27" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1418,25 +1418,25 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="5"/>
@@ -1461,13 +1461,13 @@
       <c r="AA18" s="4"/>
     </row>
     <row r="19" spans="1:27" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1490,25 +1490,25 @@
       <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>46</v>
       </c>
       <c r="H20" s="5"/>
@@ -1533,13 +1533,13 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -1561,14 +1561,14 @@
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+    <row r="22" spans="1:27" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -1591,25 +1591,25 @@
       <c r="AA22" s="5"/>
     </row>
     <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="15">
         <v>11</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>53</v>
       </c>
       <c r="H23" s="5"/>
@@ -1634,13 +1634,13 @@
       <c r="AA23" s="4"/>
     </row>
     <row r="24" spans="1:27" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -1663,23 +1663,23 @@
       <c r="AA24" s="4"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="19">
         <v>12</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
         <v>57</v>
       </c>
       <c r="H25" s="5"/>
@@ -1704,13 +1704,13 @@
       <c r="AA25" s="4"/>
     </row>
     <row r="26" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -1733,23 +1733,23 @@
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="19">
         <v>13</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
         <v>61</v>
       </c>
       <c r="H27" s="5"/>
@@ -1774,13 +1774,13 @@
       <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -1803,25 +1803,25 @@
       <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="17">
         <v>14</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="H29" s="5"/>
@@ -1846,13 +1846,13 @@
       <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -1875,23 +1875,23 @@
       <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="19">
         <v>15</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H31" s="5"/>
@@ -1916,13 +1916,13 @@
       <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -1945,25 +1945,25 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="17">
         <v>16</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="5"/>
@@ -1988,13 +1988,13 @@
       <c r="AA33" s="4"/>
     </row>
     <row r="34" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -2017,25 +2017,25 @@
       <c r="AA34" s="4"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="17">
         <v>17</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>75</v>
       </c>
       <c r="H35" s="5"/>
@@ -2060,13 +2060,13 @@
       <c r="AA35" s="4"/>
     </row>
     <row r="36" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -2089,25 +2089,25 @@
       <c r="AA36" s="4"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
+      <c r="A37" s="17">
         <v>18</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G37" s="11" t="s">
         <v>77</v>
       </c>
       <c r="H37" s="5"/>
@@ -2132,13 +2132,13 @@
       <c r="AA37" s="4"/>
     </row>
     <row r="38" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -2161,25 +2161,25 @@
       <c r="AA38" s="4"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39" s="17">
         <v>19</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>105</v>
       </c>
       <c r="H39" s="5"/>
@@ -2204,13 +2204,13 @@
       <c r="AA39" s="4"/>
     </row>
     <row r="40" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -2233,25 +2233,25 @@
       <c r="AA40" s="4"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="17">
         <v>20</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="5"/>
@@ -2276,13 +2276,13 @@
       <c r="AA41" s="4"/>
     </row>
     <row r="42" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
@@ -2305,25 +2305,25 @@
       <c r="AA42" s="4"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="17">
         <v>22</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H43" s="5"/>
@@ -2348,13 +2348,13 @@
       <c r="AA43" s="4"/>
     </row>
     <row r="44" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
@@ -2377,25 +2377,25 @@
       <c r="AA44" s="4"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
+      <c r="A45" s="17">
         <v>23</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="5"/>
@@ -2420,13 +2420,13 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -2449,25 +2449,25 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
+      <c r="A47" s="17">
         <v>24</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H47" s="5"/>
@@ -2492,13 +2492,13 @@
       <c r="AA47" s="4"/>
     </row>
     <row r="48" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="15"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -2521,25 +2521,25 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
+      <c r="A49" s="17">
         <v>25</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>101</v>
       </c>
       <c r="H49" s="5"/>
@@ -2564,13 +2564,13 @@
       <c r="AA49" s="4"/>
     </row>
     <row r="50" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -2593,25 +2593,25 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
+      <c r="A51" s="17">
         <v>26</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H51" s="5"/>
@@ -2636,13 +2636,13 @@
       <c r="AA51" s="4"/>
     </row>
     <row r="52" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="15"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -3775,16 +3775,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -3794,6 +3784,9 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="A43:A44"/>
@@ -3804,14 +3797,13 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G11"/>
@@ -3828,9 +3820,16 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="G41:G42"/>
@@ -3844,14 +3843,6 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G35:G36"/>
@@ -3875,6 +3866,7 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="C51:C52"/>
@@ -3907,7 +3899,9 @@
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F20:F21"/>
@@ -3926,6 +3920,12 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
